--- a/projects/current/skyrim/han.xlsx
+++ b/projects/current/skyrim/han.xlsx
@@ -404,6 +404,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,12 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,7 +727,7 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>18</v>
@@ -765,14 +765,14 @@
       <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -1056,16 +1056,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="4">
-        <f>S8</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4">
-        <f>L6</f>
-        <v>13</v>
-      </c>
-      <c r="F8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
         <f>(D8+E8)*(1+0.4*($D$4/100))*(1+$D$1)*(1+$D$2)*(1+$D$3)</f>
-        <v>96.75</v>
+        <v>52.416000000000004</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -1107,16 +1105,14 @@
         <v>12</v>
       </c>
       <c r="D9" s="4">
-        <f>S23</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
-        <f>M6</f>
-        <v>7</v>
-      </c>
-      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" ref="F9:F11" si="0">(D9+E9)*(1+0.4*($D$4/100))*(1+$D$1)*(1+$D$2)*(1+$D$3)</f>
-        <v>34.874999999999993</v>
+        <v>17.472000000000001</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>52</v>
@@ -1137,16 +1133,14 @@
         <v>13</v>
       </c>
       <c r="D10" s="4">
-        <f>S36</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4">
-        <f>M6</f>
-        <v>7</v>
-      </c>
-      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>34.874999999999993</v>
+        <v>17.472000000000001</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>53</v>
@@ -1167,16 +1161,14 @@
         <v>14</v>
       </c>
       <c r="D11" s="4">
-        <f>S50</f>
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4">
-        <f>M6</f>
-        <v>7</v>
-      </c>
-      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>46.124999999999993</v>
+        <v>24.192000000000004</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>54</v>
@@ -1197,16 +1189,14 @@
         <v>15</v>
       </c>
       <c r="D12" s="4">
-        <f>S60</f>
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
-        <f>M6</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
         <f>(D12+E12)*(1+0.4*($D$4/100))*(1+$D$1)*(1+$D$2)</f>
-        <v>59.0625</v>
+        <v>29.120000000000005</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>55</v>
@@ -1223,14 +1213,14 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="15">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12">
         <f>SUM(F8:F12)+D5</f>
-        <v>321.6875</v>
+        <v>190.67200000000003</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1249,11 +1239,11 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="7">
         <f>3%*COUNT(D8:D12)</f>
         <v>0.15</v>
@@ -1291,7 +1281,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="10">
         <f>F13*0.12/100+F14</f>
-        <v>0.53602499999999997</v>
+        <v>0.37880639999999999</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>12</v>

--- a/projects/current/skyrim/han.xlsx
+++ b/projects/current/skyrim/han.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARMOR" sheetId="1" r:id="rId1"/>
-    <sheet name="Cosas pendientes a hacer" sheetId="2" r:id="rId2"/>
+    <sheet name="BLOCK" sheetId="3" r:id="rId2"/>
+    <sheet name="Cosas pendientes a hacer" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>Notes</t>
   </si>
@@ -306,6 +307,21 @@
   </si>
   <si>
     <t>Azura Shrine</t>
+  </si>
+  <si>
+    <t>Blocked Damage % = (45 + 0.2 x BaseShieldArmorRating x (1 + BlockSkill x 1.5 / 100)) x (1 + Shield Wall perk) x (1 + Enchantment1 + Enchantment2) x (1 + Potion)</t>
+  </si>
+  <si>
+    <t>BaseShieldArmorRating</t>
+  </si>
+  <si>
+    <t>BlockSkill</t>
+  </si>
+  <si>
+    <t>Shield Wall perk</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -316,7 +332,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +370,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -376,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,6 +434,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -765,14 +790,14 @@
       <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
@@ -1213,11 +1238,11 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="12">
         <f>SUM(F8:F12)+D5</f>
         <v>190.67200000000003</v>
@@ -1239,11 +1264,11 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="7">
         <f>3%*COUNT(D8:D12)</f>
         <v>0.15</v>
@@ -1989,6 +2014,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>0.2*B5*(1+(B6*1.5)/100)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>1+B7</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13">
+        <f>(A9+A10)*A11</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/projects/current/skyrim/han.xlsx
+++ b/projects/current/skyrim/han.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ARMOR" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
